--- a/data/trans_bre/VUL_MENTALCOM-Clase-trans_bre.xlsx
+++ b/data/trans_bre/VUL_MENTALCOM-Clase-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>3,26</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>12,04</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,44</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,69</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>81,44%</t>
+          <t>28,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>66,06%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>74,26%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>106,36%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>74,18%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>62,77%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 4,09</t>
+          <t>-1,12; 2,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,53; 17,47</t>
+          <t>-0,42; 6,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,52</t>
+          <t>-0,52; 3,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 3,48</t>
+          <t>7,5; 17,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 272,42</t>
+          <t>-29,18; 112,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>52,44; 196,19</t>
+          <t>-6,34; 204,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,95; 204,47</t>
+          <t>-24,21; 306,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 178,8</t>
+          <t>50,75; 179,27</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>3,58</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>9,4</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,14</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>28,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>60,4%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3,7%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>60,04%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>69,94%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>50,57%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 3,66</t>
+          <t>-1,67; 3,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 15,67</t>
+          <t>-0,3; 8,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 8,0</t>
+          <t>-3,05; 2,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 4,07</t>
+          <t>2,99; 15,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,56; 146,18</t>
+          <t>-32,78; 150,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,53; 124,51</t>
+          <t>-9,54; 191,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,82; 177,95</t>
+          <t>-49,69; 109,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 183,38</t>
+          <t>14,75; 120,33</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>10,96</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6,31</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>10,94</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,41</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,22</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>137,05%</t>
+          <t>101,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>322,58%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>150,08%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>47,45%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>94,64%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>101,13%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 11,16</t>
+          <t>1,41; 8,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 23,6</t>
+          <t>4,82; 20,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 11,03</t>
+          <t>1,35; 12,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 7,29</t>
+          <t>-0,76; 23,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,15; 362,26</t>
+          <t>24,47; 222,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 136,14</t>
+          <t>61,73; 1728,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,83; 213,98</t>
+          <t>15,29; 496,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,94; 221,15</t>
+          <t>-5,04; 124,18</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,17</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>16,21</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>137,79%</t>
+          <t>43,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>87,85%</t>
+          <t>40,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>72,2%</t>
+          <t>140,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>51,79%</t>
+          <t>88,09%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 7,53</t>
+          <t>-0,2; 4,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,76; 24,25</t>
+          <t>-3,85; 7,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,02; 6,77</t>
+          <t>1,89; 7,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,92</t>
+          <t>8,53; 24,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,67; 362,24</t>
+          <t>-3,54; 105,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,79; 153,78</t>
+          <t>-50,79; 135,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,0; 127,38</t>
+          <t>34,38; 338,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,29; 113,38</t>
+          <t>37,22; 151,44</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>7,71</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>22,36</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>8,9</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>5,04</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>104,31%</t>
+          <t>184,51%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>107,03%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>76,95%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>226,19%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>114,24%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>165,27%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 7,49</t>
+          <t>2,62; 7,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,88; 32,73</t>
+          <t>-0,54; 12,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,15; 11,9</t>
+          <t>-0,96; 7,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 7,39</t>
+          <t>12,32; 32,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 336,6</t>
+          <t>52,45; 450,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>69,91; 544,37</t>
+          <t>4,35; 255,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>50,64; 202,78</t>
+          <t>-21,6; 299,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>47,47; 356,15</t>
+          <t>80,7; 559,03</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>7,59</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,24</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>9,79</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>102,61%</t>
+          <t>468,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>75,02%</t>
+          <t>108,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>113,57%</t>
+          <t>134,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>496,19%</t>
+          <t>67,35%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 28,07</t>
+          <t>4,5; 10,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 20,76</t>
+          <t>-0,83; 11,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,37; 10,28</t>
+          <t>-7,52; 30,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,33; 8,5</t>
+          <t>-5,6; 21,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>68,56; 2152,48</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-11,99; 390,69</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-16,52; 308,9</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>10,03; 359,52</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>141,44; 1427,79</t>
+          <t>-29,23; 274,64</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>5,7</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>12,59</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>5,93</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>3,27</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>89,78%</t>
+          <t>74,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>81,37%</t>
+          <t>106,02%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>81,74%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>88,32%</t>
+          <t>81,09%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,41</t>
+          <t>1,96; 4,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,3; 15,82</t>
+          <t>2,23; 8,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,47; 7,28</t>
+          <t>1,39; 4,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,22</t>
+          <t>9,6; 15,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,26; 158,75</t>
+          <t>42,83; 116,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>54,86; 111,43</t>
+          <t>39,71; 190,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>67,23; 132,91</t>
+          <t>35,67; 160,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>56,66; 130,16</t>
+          <t>56,0; 112,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/VUL_MENTALCOM-Clase-trans_bre.xlsx
+++ b/data/trans_bre/VUL_MENTALCOM-Clase-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 2,59</t>
+          <t>-1,04; 2,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 6,68</t>
+          <t>-0,1; 6,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,5; 17,08</t>
+          <t>7,25; 16,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-29,18; 112,4</t>
+          <t>-28,09; 116,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 204,06</t>
+          <t>-3,46; 201,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>50,75; 179,27</t>
+          <t>55,0; 184,41</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>34,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,63</t>
+          <t>-1,51; 4,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 8,17</t>
+          <t>-0,49; 7,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 15,29</t>
+          <t>2,81; 15,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,78; 150,92</t>
+          <t>-28,99; 159,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 191,59</t>
+          <t>-10,32; 184,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,75; 120,33</t>
+          <t>14,17; 125,56</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>101,28%</t>
+          <t>158,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 8,58</t>
+          <t>3,02; 10,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,82; 20,17</t>
+          <t>5,19; 18,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 23,5</t>
+          <t>-0,47; 23,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,47; 222,64</t>
+          <t>60,63; 304,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>61,73; 1728,62</t>
+          <t>64,67; 1687,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 124,18</t>
+          <t>-5,04; 128,03</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>43,06%</t>
+          <t>26,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 4,81</t>
+          <t>-0,73; 4,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 7,57</t>
+          <t>-4,06; 7,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,53; 24,09</t>
+          <t>8,91; 24,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 105,89</t>
+          <t>-9,81; 93,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,79; 135,68</t>
+          <t>-52,38; 142,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,22; 151,44</t>
+          <t>39,98; 159,81</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>184,51%</t>
+          <t>330,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,62; 7,83</t>
+          <t>4,62; 9,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 12,88</t>
+          <t>0,08; 12,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,17 +1083,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,32; 32,16</t>
+          <t>13,33; 33,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>52,45; 450,13</t>
+          <t>133,58; 751,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,35; 255,7</t>
+          <t>7,9; 247,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>80,7; 559,03</t>
+          <t>75,24; 591,45</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,59</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>468,6%</t>
+          <t>340,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,5; 10,63</t>
+          <t>3,18; 8,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 11,05</t>
+          <t>0,21; 11,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 21,01</t>
+          <t>-5,79; 21,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>68,56; 2152,48</t>
+          <t>48,33; 1490,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 390,69</t>
+          <t>-6,31; 474,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,23; 274,64</t>
+          <t>-31,93; 272,39</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>74,73%</t>
+          <t>79,29%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,2</t>
+          <t>2,04; 4,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,23; 8,0</t>
+          <t>2,47; 8,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,6; 15,81</t>
+          <t>9,22; 15,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,83; 116,68</t>
+          <t>46,76; 120,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>39,71; 190,15</t>
+          <t>45,58; 200,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>56,0; 112,68</t>
+          <t>52,78; 109,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/VUL_MENTALCOM-Clase-trans_bre.xlsx
+++ b/data/trans_bre/VUL_MENTALCOM-Clase-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4,0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12,04</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,63</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,26</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>12,04</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>85,11%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>106,36%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>74,26%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>21,67%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>66,06%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>74,26%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>106,36%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,8; 7,74</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7,25; 16,92</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 3,82</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>-1,04; 2,37</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,1; 6,97</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 3,82</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>7,25; 16,92</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>9,73; 234,82</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>55,0; 184,41</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-24,21; 306,54</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>-28,09; 116,77</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-3,46; 201,12</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-24,21; 306,54</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>55,0; 184,41</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9,4</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>1,33</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,58</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>9,4</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>47,42%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>60,04%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3,7%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>34,1%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>60,4%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,7%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>60,04%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-1,0; 6,99</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2,81; 15,69</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-3,05; 2,75</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>-1,51; 4,08</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 7,84</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,05; 2,75</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,81; 15,69</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-17,11; 153,98</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14,17; 125,56</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-49,69; 109,55</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>-28,99; 159,7</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-10,32; 184,51</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-49,69; 109,55</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>14,17; 125,56</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>7,24</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10,94</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6,31</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>6,5</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10,96</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,31</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>10,94</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>105,63%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>47,45%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>150,08%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>158,16%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>322,58%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>150,08%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>47,45%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1,86; 13,52</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 23,68</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 12,7</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>3,02; 10,2</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>5,19; 18,46</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,35; 12,7</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-0,47; 23,68</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>13,39; 280,76</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-5,04; 128,03</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>15,29; 496,3</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>60,63; 304,51</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>64,67; 1687,69</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>15,29; 496,3</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-5,04; 128,03</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6,13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16,21</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4,57</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>1,52</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,51</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,57</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>16,21</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>95,47%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>88,09%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>140,94%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>26,43%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>40,97%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>140,94%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>88,09%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>3,0; 9,48</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8,91; 24,78</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 7,69</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>-0,73; 4,03</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,06; 7,7</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,89; 7,69</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>8,91; 24,78</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>36,59; 197,62</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>39,98; 159,81</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>34,38; 338,93</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>-9,81; 93,68</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-52,38; 142,81</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>34,38; 338,93</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>39,98; 159,81</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>11,17</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>22,36</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>7,09</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7,71</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,96</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>22,36</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>176,08%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>226,19%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>76,95%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>330,59%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>107,03%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>76,95%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>226,19%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>6,27; 14,85</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>13,33; 33,38</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 7,0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>4,62; 9,77</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 12,6</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 7,0</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>13,33; 33,38</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>62,88; 349,82</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>75,24; 591,45</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-21,6; 299,48</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>133,58; 751,9</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>7,9; 247,09</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-21,6; 299,48</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>75,24; 591,45</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>6,02</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9,79</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5,65</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>6,23</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,68</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,65</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>9,79</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>91,93%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>67,35%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>134,13%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>340,47%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>108,31%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>134,13%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>67,35%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-0,01; 11,24</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-5,79; 21,13</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-7,52; 30,03</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>3,18; 8,76</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 11,83</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-7,52; 30,03</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-5,79; 21,13</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>-8,3; 394,46</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-31,93; 272,39</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>48,33; 1490,57</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; 474,56</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-31,93; 272,39</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>6,43</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12,59</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>3,03</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>5,7</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>12,59</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>105,57%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>81,09%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>81,74%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>79,29%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>106,02%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>81,74%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>81,09%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>4,75; 8,06</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9,22; 15,58</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 4,31</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>2,04; 4,0</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,47; 8,13</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 4,31</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>9,22; 15,58</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>65,98; 149,53</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>52,78; 109,82</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>35,67; 160,26</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>46,76; 120,18</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>45,58; 200,77</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>35,67; 160,26</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>52,78; 109,82</t>
         </is>
       </c>
     </row>
